--- a/Code/Results/Cases/Case_0_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8441705073531881</v>
+        <v>1.009723801316837</v>
       </c>
       <c r="D2">
-        <v>0.8547453853766767</v>
+        <v>1.012369409256422</v>
       </c>
       <c r="E2">
-        <v>0.8723696679947555</v>
+        <v>1.012102512257772</v>
       </c>
       <c r="F2">
-        <v>0.7340034630993996</v>
+        <v>1.013057754868212</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.004071548469992</v>
+        <v>1.022892173712927</v>
       </c>
       <c r="J2">
-        <v>0.8722738487915309</v>
+        <v>1.014982178193998</v>
       </c>
       <c r="K2">
-        <v>0.8686830217815474</v>
+        <v>1.01523377473692</v>
       </c>
       <c r="L2">
-        <v>0.8859487955098601</v>
+        <v>1.014967681395946</v>
       </c>
       <c r="M2">
-        <v>0.7510421203429397</v>
+        <v>1.015920049790344</v>
       </c>
       <c r="N2">
-        <v>0.9616994634893088</v>
+        <v>1.00906612447811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8829577996317386</v>
+        <v>1.0123290077605</v>
       </c>
       <c r="D3">
-        <v>0.8920727656716483</v>
+        <v>1.014885506124189</v>
       </c>
       <c r="E3">
-        <v>0.9051749203356916</v>
+        <v>1.014349969949083</v>
       </c>
       <c r="F3">
-        <v>0.8144263221619134</v>
+        <v>1.01657539013031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.01774406662653</v>
+        <v>1.023246752324957</v>
       </c>
       <c r="J3">
-        <v>0.9072416748326289</v>
+        <v>1.017211050148072</v>
       </c>
       <c r="K3">
-        <v>0.9043021690344467</v>
+        <v>1.017549598742093</v>
       </c>
       <c r="L3">
-        <v>0.9171844010076489</v>
+        <v>1.017015553002236</v>
       </c>
       <c r="M3">
-        <v>0.828152027830111</v>
+        <v>1.019234790840363</v>
       </c>
       <c r="N3">
-        <v>0.9732799853757101</v>
+        <v>1.009804260830041</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8999503108576116</v>
+        <v>1.013990547240399</v>
       </c>
       <c r="D4">
-        <v>0.908357802923758</v>
+        <v>1.016489922865572</v>
       </c>
       <c r="E4">
-        <v>0.9195373732641517</v>
+        <v>1.015783641761536</v>
       </c>
       <c r="F4">
-        <v>0.8465671097830423</v>
+        <v>1.018789415519919</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023280507283435</v>
+        <v>1.023461817648929</v>
       </c>
       <c r="J4">
-        <v>0.9223126361854864</v>
+        <v>1.018629430864997</v>
       </c>
       <c r="K4">
-        <v>0.9197044391101796</v>
+        <v>1.019024248906082</v>
       </c>
       <c r="L4">
-        <v>0.9307148037627909</v>
+        <v>1.018319830112994</v>
       </c>
       <c r="M4">
-        <v>0.8589539908116267</v>
+        <v>1.021317697615991</v>
       </c>
       <c r="N4">
-        <v>0.9782790077109625</v>
+        <v>1.010273859763054</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9062482722192938</v>
+        <v>1.014683415119066</v>
       </c>
       <c r="D5">
-        <v>0.9143862342254732</v>
+        <v>1.017158900337124</v>
       </c>
       <c r="E5">
-        <v>0.9248612650954894</v>
+        <v>1.016381557804524</v>
       </c>
       <c r="F5">
-        <v>0.8580943246026637</v>
+        <v>1.019705639075996</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025267009039508</v>
+        <v>1.023548832358737</v>
       </c>
       <c r="J5">
-        <v>0.9278660213756661</v>
+        <v>1.019220147637942</v>
       </c>
       <c r="K5">
-        <v>0.9253869682778287</v>
+        <v>1.01963862512403</v>
       </c>
       <c r="L5">
-        <v>0.9357099491129194</v>
+        <v>1.018863284695991</v>
       </c>
       <c r="M5">
-        <v>0.8699943884427555</v>
+        <v>1.022178827605462</v>
       </c>
       <c r="N5">
-        <v>0.9801219213869627</v>
+        <v>1.010469404293567</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9072674249247896</v>
+        <v>1.014799424001475</v>
       </c>
       <c r="D6">
-        <v>0.9153614431286594</v>
+        <v>1.017270905055041</v>
       </c>
       <c r="E6">
-        <v>0.925722858392321</v>
+        <v>1.016481672689962</v>
       </c>
       <c r="F6">
-        <v>0.8599413329839347</v>
+        <v>1.019858632571337</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025585139809995</v>
+        <v>1.023563244356673</v>
       </c>
       <c r="J6">
-        <v>0.9287631082971104</v>
+        <v>1.019319008826121</v>
       </c>
       <c r="K6">
-        <v>0.9263052691325765</v>
+        <v>1.019741459127039</v>
       </c>
       <c r="L6">
-        <v>0.9365173262748526</v>
+        <v>1.018954251391702</v>
       </c>
       <c r="M6">
-        <v>0.8717629712303382</v>
+        <v>1.022322572007372</v>
       </c>
       <c r="N6">
-        <v>0.9804196606099966</v>
+        <v>1.010502128436787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9000372262653974</v>
+        <v>1.013999827354155</v>
       </c>
       <c r="D7">
-        <v>0.9084410232587865</v>
+        <v>1.016498883273337</v>
       </c>
       <c r="E7">
-        <v>0.9196108417201133</v>
+        <v>1.015791649838458</v>
       </c>
       <c r="F7">
-        <v>0.846727544163774</v>
+        <v>1.018801714916446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023308162669898</v>
+        <v>1.023462993645269</v>
       </c>
       <c r="J7">
-        <v>0.9223893914210971</v>
+        <v>1.018637345760307</v>
       </c>
       <c r="K7">
-        <v>0.9197829536454296</v>
+        <v>1.019032479922084</v>
       </c>
       <c r="L7">
-        <v>0.930783809263502</v>
+        <v>1.018327110730025</v>
       </c>
       <c r="M7">
-        <v>0.8591076787617599</v>
+        <v>1.021329260751614</v>
       </c>
       <c r="N7">
-        <v>0.9783044764099186</v>
+        <v>1.010276479945826</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8604720513891088</v>
+        <v>1.010609347934248</v>
       </c>
       <c r="D8">
-        <v>0.8704660696858275</v>
+        <v>1.013224726849681</v>
       </c>
       <c r="E8">
-        <v>0.8861650329214764</v>
+        <v>1.012866392416505</v>
       </c>
       <c r="F8">
-        <v>0.7691930781151596</v>
+        <v>1.014259616781333</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.010006783912579</v>
+        <v>1.02301500687937</v>
       </c>
       <c r="J8">
-        <v>0.8870792221611259</v>
+        <v>1.015740459935344</v>
       </c>
       <c r="K8">
-        <v>0.8837426051377464</v>
+        <v>1.016021442638626</v>
       </c>
       <c r="L8">
-        <v>0.8991449381712362</v>
+        <v>1.015664159477811</v>
       </c>
       <c r="M8">
-        <v>0.7847803158471123</v>
+        <v>1.017053300973298</v>
       </c>
       <c r="N8">
-        <v>0.966598952116102</v>
+        <v>1.009317271314984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8604720513891088</v>
+        <v>1.004442324129462</v>
       </c>
       <c r="D9">
-        <v>0.8704660696858275</v>
+        <v>1.007267006087641</v>
       </c>
       <c r="E9">
-        <v>0.8861650329214764</v>
+        <v>1.007547956565901</v>
       </c>
       <c r="F9">
-        <v>0.7691930781151596</v>
+        <v>1.005764727953794</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010006783912579</v>
+        <v>1.022113488764371</v>
       </c>
       <c r="J9">
-        <v>0.8870792221611259</v>
+        <v>1.010446490180462</v>
       </c>
       <c r="K9">
-        <v>0.8837426051377464</v>
+        <v>1.010526254529018</v>
       </c>
       <c r="L9">
-        <v>0.8991449381712362</v>
+        <v>1.010806230397623</v>
       </c>
       <c r="M9">
-        <v>0.7847803158471123</v>
+        <v>1.009029197930934</v>
       </c>
       <c r="N9">
-        <v>0.966598952116102</v>
+        <v>1.007563355763422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8604720513891088</v>
+        <v>1.000190790630187</v>
       </c>
       <c r="D10">
-        <v>0.8704660696858275</v>
+        <v>1.003158226520186</v>
       </c>
       <c r="E10">
-        <v>0.8861650329214764</v>
+        <v>1.003883126305623</v>
       </c>
       <c r="F10">
-        <v>0.7691930781151596</v>
+        <v>0.9997481347662661</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010006783912579</v>
+        <v>1.021433968023802</v>
       </c>
       <c r="J10">
-        <v>0.8870792221611259</v>
+        <v>1.006780010644065</v>
       </c>
       <c r="K10">
-        <v>0.8837426051377464</v>
+        <v>1.006725420328503</v>
       </c>
       <c r="L10">
-        <v>0.8991449381712362</v>
+        <v>1.007447541029766</v>
       </c>
       <c r="M10">
-        <v>0.7847803158471123</v>
+        <v>1.003328462018642</v>
       </c>
       <c r="N10">
-        <v>0.966598952116102</v>
+        <v>1.006347980336754</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8604720513891088</v>
+        <v>0.9983139923082324</v>
       </c>
       <c r="D11">
-        <v>0.8704660696858275</v>
+        <v>1.001344077935216</v>
       </c>
       <c r="E11">
-        <v>0.8861650329214764</v>
+        <v>1.002265739850661</v>
       </c>
       <c r="F11">
-        <v>0.7691930781151596</v>
+        <v>0.9970534203241391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010006783912579</v>
+        <v>1.021120325440467</v>
       </c>
       <c r="J11">
-        <v>0.8870792221611259</v>
+        <v>1.005157452936121</v>
       </c>
       <c r="K11">
-        <v>0.8837426051377464</v>
+        <v>1.005044597867223</v>
       </c>
       <c r="L11">
-        <v>0.8991449381712362</v>
+        <v>1.00596257883049</v>
       </c>
       <c r="M11">
-        <v>0.7847803158471123</v>
+        <v>1.00077117612243</v>
       </c>
       <c r="N11">
-        <v>0.966598952116102</v>
+        <v>1.00580997892648</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8604720513891088</v>
+        <v>0.9976112416549122</v>
       </c>
       <c r="D12">
-        <v>0.8704660696858275</v>
+        <v>1.000664730304424</v>
       </c>
       <c r="E12">
-        <v>0.8861650329214764</v>
+        <v>1.001660187812595</v>
       </c>
       <c r="F12">
-        <v>0.7691930781151596</v>
+        <v>0.9960385151339523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010006783912579</v>
+        <v>1.021000835876873</v>
       </c>
       <c r="J12">
-        <v>0.8870792221611259</v>
+        <v>1.004549292025317</v>
       </c>
       <c r="K12">
-        <v>0.8837426051377464</v>
+        <v>1.004414778155151</v>
       </c>
       <c r="L12">
-        <v>0.8991449381712362</v>
+        <v>1.005406200460119</v>
       </c>
       <c r="M12">
-        <v>0.7847803158471123</v>
+        <v>0.9998074338895888</v>
       </c>
       <c r="N12">
-        <v>0.966598952116102</v>
+        <v>1.005608304957111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8604720513891088</v>
+        <v>0.9977622425398768</v>
       </c>
       <c r="D13">
-        <v>0.8704660696858275</v>
+        <v>1.000810705075609</v>
       </c>
       <c r="E13">
-        <v>0.8861650329214764</v>
+        <v>1.001790300592335</v>
       </c>
       <c r="F13">
-        <v>0.7691930781151596</v>
+        <v>0.9962568566521686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010006783912579</v>
+        <v>1.021026603280786</v>
       </c>
       <c r="J13">
-        <v>0.8870792221611259</v>
+        <v>1.004679995863504</v>
       </c>
       <c r="K13">
-        <v>0.8837426051377464</v>
+        <v>1.004550128691058</v>
       </c>
       <c r="L13">
-        <v>0.8991449381712362</v>
+        <v>1.005525765883156</v>
       </c>
       <c r="M13">
-        <v>0.7847803158471123</v>
+        <v>1.000014795257649</v>
       </c>
       <c r="N13">
-        <v>0.966598952116102</v>
+        <v>1.005651649031043</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8604720513891088</v>
+        <v>0.9982560188774017</v>
       </c>
       <c r="D14">
-        <v>0.8704660696858275</v>
+        <v>1.001288036271832</v>
       </c>
       <c r="E14">
-        <v>0.8861650329214764</v>
+        <v>1.00221578350893</v>
       </c>
       <c r="F14">
-        <v>0.7691930781151596</v>
+        <v>0.9969698160516492</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010006783912579</v>
+        <v>1.021110509809414</v>
       </c>
       <c r="J14">
-        <v>0.8870792221611259</v>
+        <v>1.005107295091406</v>
       </c>
       <c r="K14">
-        <v>0.8837426051377464</v>
+        <v>1.004992650059767</v>
       </c>
       <c r="L14">
-        <v>0.8991449381712362</v>
+        <v>1.005916687461878</v>
       </c>
       <c r="M14">
-        <v>0.7847803158471123</v>
+        <v>1.000691798532269</v>
       </c>
       <c r="N14">
-        <v>0.966598952116102</v>
+        <v>1.005793346392718</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8604720513891088</v>
+        <v>0.9985594981624113</v>
       </c>
       <c r="D15">
-        <v>0.8704660696858275</v>
+        <v>1.001581400868412</v>
       </c>
       <c r="E15">
-        <v>0.8861650329214764</v>
+        <v>1.002477297565917</v>
       </c>
       <c r="F15">
-        <v>0.7691930781151596</v>
+        <v>0.9974072266498927</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010006783912579</v>
+        <v>1.021161809064245</v>
       </c>
       <c r="J15">
-        <v>0.8870792221611259</v>
+        <v>1.005369836491277</v>
       </c>
       <c r="K15">
-        <v>0.8837426051377464</v>
+        <v>1.005264568008201</v>
       </c>
       <c r="L15">
-        <v>0.8991449381712362</v>
+        <v>1.006156905386268</v>
       </c>
       <c r="M15">
-        <v>0.7847803158471123</v>
+        <v>1.001107071245156</v>
       </c>
       <c r="N15">
-        <v>0.966598952116102</v>
+        <v>1.005880405219693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8604720513891088</v>
+        <v>1.000314572203269</v>
       </c>
       <c r="D16">
-        <v>0.8704660696858275</v>
+        <v>1.003277868402726</v>
       </c>
       <c r="E16">
-        <v>0.8861650329214764</v>
+        <v>1.003989807583235</v>
       </c>
       <c r="F16">
-        <v>0.7691930781151596</v>
+        <v>0.999925044806819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010006783912579</v>
+        <v>1.021454368471693</v>
       </c>
       <c r="J16">
-        <v>0.8870792221611259</v>
+        <v>1.006886939675252</v>
       </c>
       <c r="K16">
-        <v>0.8837426051377464</v>
+        <v>1.006836214051649</v>
       </c>
       <c r="L16">
-        <v>0.8991449381712362</v>
+        <v>1.007545431365877</v>
       </c>
       <c r="M16">
-        <v>0.7847803158471123</v>
+        <v>1.003496266692218</v>
       </c>
       <c r="N16">
-        <v>0.966598952116102</v>
+        <v>1.006383432325287</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8604720513891088</v>
+        <v>1.001405721331596</v>
       </c>
       <c r="D17">
-        <v>0.8704660696858275</v>
+        <v>1.004332483604167</v>
       </c>
       <c r="E17">
-        <v>0.8861650329214764</v>
+        <v>1.004930263503624</v>
       </c>
       <c r="F17">
-        <v>0.7691930781151596</v>
+        <v>1.001480088691472</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010006783912579</v>
+        <v>1.021632637890683</v>
       </c>
       <c r="J17">
-        <v>0.8870792221611259</v>
+        <v>1.007829070916578</v>
       </c>
       <c r="K17">
-        <v>0.8837426051377464</v>
+        <v>1.007812532590323</v>
       </c>
       <c r="L17">
-        <v>0.8991449381712362</v>
+        <v>1.008408082874746</v>
       </c>
       <c r="M17">
-        <v>0.7847803158471123</v>
+        <v>1.004970817198845</v>
       </c>
       <c r="N17">
-        <v>0.966598952116102</v>
+        <v>1.006695775789255</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8604720513891088</v>
+        <v>1.002038727365172</v>
       </c>
       <c r="D18">
-        <v>0.8704660696858275</v>
+        <v>1.004944260258981</v>
       </c>
       <c r="E18">
-        <v>0.8861650329214764</v>
+        <v>1.005475887925492</v>
       </c>
       <c r="F18">
-        <v>0.7691930781151596</v>
+        <v>1.002378522313599</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010006783912579</v>
+        <v>1.021734752321862</v>
       </c>
       <c r="J18">
-        <v>0.8870792221611259</v>
+        <v>1.008375243796897</v>
       </c>
       <c r="K18">
-        <v>0.8837426051377464</v>
+        <v>1.008378638062154</v>
       </c>
       <c r="L18">
-        <v>0.8991449381712362</v>
+        <v>1.008908311687686</v>
       </c>
       <c r="M18">
-        <v>0.7847803158471123</v>
+        <v>1.005822362926067</v>
       </c>
       <c r="N18">
-        <v>0.966598952116102</v>
+        <v>1.006876833297565</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8604720513891088</v>
+        <v>1.002253989060768</v>
       </c>
       <c r="D19">
-        <v>0.8704660696858275</v>
+        <v>1.00515229670407</v>
       </c>
       <c r="E19">
-        <v>0.8861650329214764</v>
+        <v>1.00566144109552</v>
       </c>
       <c r="F19">
-        <v>0.7691930781151596</v>
+        <v>1.002683422020291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010006783912579</v>
+        <v>1.021769256141534</v>
       </c>
       <c r="J19">
-        <v>0.8870792221611259</v>
+        <v>1.008560911793445</v>
       </c>
       <c r="K19">
-        <v>0.8837426051377464</v>
+        <v>1.008571101253682</v>
       </c>
       <c r="L19">
-        <v>0.8991449381712362</v>
+        <v>1.009078383643104</v>
       </c>
       <c r="M19">
-        <v>0.7847803158471123</v>
+        <v>1.006111285187604</v>
       </c>
       <c r="N19">
-        <v>0.966598952116102</v>
+        <v>1.006938380187218</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8604720513891088</v>
+        <v>1.001289009126888</v>
       </c>
       <c r="D20">
-        <v>0.8704660696858275</v>
+        <v>1.004219682798374</v>
       </c>
       <c r="E20">
-        <v>0.8861650329214764</v>
+        <v>1.004829665716956</v>
       </c>
       <c r="F20">
-        <v>0.7691930781151596</v>
+        <v>1.001314140109574</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010006783912579</v>
+        <v>1.021613704903941</v>
       </c>
       <c r="J20">
-        <v>0.8870792221611259</v>
+        <v>1.007728337857735</v>
       </c>
       <c r="K20">
-        <v>0.8837426051377464</v>
+        <v>1.007708132438668</v>
       </c>
       <c r="L20">
-        <v>0.8991449381712362</v>
+        <v>1.008315834130888</v>
       </c>
       <c r="M20">
-        <v>0.7847803158471123</v>
+        <v>1.004813498209291</v>
       </c>
       <c r="N20">
-        <v>0.966598952116102</v>
+        <v>1.006662381391307</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8604720513891088</v>
+        <v>0.998110771290399</v>
       </c>
       <c r="D21">
-        <v>0.8704660696858275</v>
+        <v>1.001147627668387</v>
       </c>
       <c r="E21">
-        <v>0.8861650329214764</v>
+        <v>1.002090623107367</v>
       </c>
       <c r="F21">
-        <v>0.7691930781151596</v>
+        <v>0.9967602572629009</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010006783912579</v>
+        <v>1.02108588454948</v>
       </c>
       <c r="J21">
-        <v>0.8870792221611259</v>
+        <v>1.004981618979655</v>
       </c>
       <c r="K21">
-        <v>0.8837426051377464</v>
+        <v>1.004862491895571</v>
       </c>
       <c r="L21">
-        <v>0.8991449381712362</v>
+        <v>1.005801704866674</v>
       </c>
       <c r="M21">
-        <v>0.7847803158471123</v>
+        <v>1.000492824588544</v>
       </c>
       <c r="N21">
-        <v>0.966598952116102</v>
+        <v>1.005751671353364</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8604720513891088</v>
+        <v>0.9960798183746542</v>
       </c>
       <c r="D22">
-        <v>0.8704660696858275</v>
+        <v>0.9991842038725113</v>
       </c>
       <c r="E22">
-        <v>0.8861650329214764</v>
+        <v>1.000340697474055</v>
       </c>
       <c r="F22">
-        <v>0.7691930781151596</v>
+        <v>0.9938159473963067</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010006783912579</v>
+        <v>1.020736690443559</v>
       </c>
       <c r="J22">
-        <v>0.8870792221611259</v>
+        <v>1.003222876024386</v>
       </c>
       <c r="K22">
-        <v>0.8837426051377464</v>
+        <v>1.003041454659543</v>
       </c>
       <c r="L22">
-        <v>0.8991449381712362</v>
+        <v>1.004193109875636</v>
       </c>
       <c r="M22">
-        <v>0.7847803158471123</v>
+        <v>0.9976958220205044</v>
       </c>
       <c r="N22">
-        <v>0.966598952116102</v>
+        <v>1.005168407839271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8604720513891088</v>
+        <v>0.9971596448138133</v>
       </c>
       <c r="D23">
-        <v>0.8704660696858275</v>
+        <v>1.000228156824833</v>
       </c>
       <c r="E23">
-        <v>0.8861650329214764</v>
+        <v>1.001271070320574</v>
       </c>
       <c r="F23">
-        <v>0.7691930781151596</v>
+        <v>0.9953846540837086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010006783912579</v>
+        <v>1.020923473761725</v>
       </c>
       <c r="J23">
-        <v>0.8870792221611259</v>
+        <v>1.004158307918429</v>
       </c>
       <c r="K23">
-        <v>0.8837426051377464</v>
+        <v>1.004009920431604</v>
       </c>
       <c r="L23">
-        <v>0.8991449381712362</v>
+        <v>1.00504856632192</v>
       </c>
       <c r="M23">
-        <v>0.7847803158471123</v>
+        <v>0.9991863680966246</v>
       </c>
       <c r="N23">
-        <v>0.966598952116102</v>
+        <v>1.005478643367967</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8604720513891088</v>
+        <v>1.001341756971019</v>
       </c>
       <c r="D24">
-        <v>0.8704660696858275</v>
+        <v>1.004270663002171</v>
       </c>
       <c r="E24">
-        <v>0.8861650329214764</v>
+        <v>1.004875130559628</v>
       </c>
       <c r="F24">
-        <v>0.7691930781151596</v>
+        <v>1.001389151660494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010006783912579</v>
+        <v>1.021622265670234</v>
       </c>
       <c r="J24">
-        <v>0.8870792221611259</v>
+        <v>1.007773865147567</v>
       </c>
       <c r="K24">
-        <v>0.8837426051377464</v>
+        <v>1.00775531675527</v>
       </c>
       <c r="L24">
-        <v>0.8991449381712362</v>
+        <v>1.008357526442902</v>
       </c>
       <c r="M24">
-        <v>0.7847803158471123</v>
+        <v>1.004884610226809</v>
       </c>
       <c r="N24">
-        <v>0.966598952116102</v>
+        <v>1.006677474360367</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8604720513891088</v>
+        <v>1.006060528904564</v>
       </c>
       <c r="D25">
-        <v>0.8704660696858275</v>
+        <v>1.008830557187946</v>
       </c>
       <c r="E25">
-        <v>0.8861650329214764</v>
+        <v>1.008943207516789</v>
       </c>
       <c r="F25">
-        <v>0.7691930781151596</v>
+        <v>1.008021340258952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010006783912579</v>
+        <v>1.022360144424155</v>
       </c>
       <c r="J25">
-        <v>0.8870792221611259</v>
+        <v>1.011838519317112</v>
       </c>
       <c r="K25">
-        <v>0.8837426051377464</v>
+        <v>1.011970327927236</v>
       </c>
       <c r="L25">
-        <v>0.8991449381712362</v>
+        <v>1.012082603211705</v>
       </c>
       <c r="M25">
-        <v>0.7847803158471123</v>
+        <v>1.011163807811549</v>
       </c>
       <c r="N25">
-        <v>0.966598952116102</v>
+        <v>1.008024655735144</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009723801316837</v>
+        <v>0.8441705073531905</v>
       </c>
       <c r="D2">
-        <v>1.012369409256422</v>
+        <v>0.8547453853766789</v>
       </c>
       <c r="E2">
-        <v>1.012102512257772</v>
+        <v>0.8723696679947573</v>
       </c>
       <c r="F2">
-        <v>1.013057754868212</v>
+        <v>0.7340034630994035</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022892173712927</v>
+        <v>1.004071548469992</v>
       </c>
       <c r="J2">
-        <v>1.014982178193998</v>
+        <v>0.8722738487915331</v>
       </c>
       <c r="K2">
-        <v>1.01523377473692</v>
+        <v>0.8686830217815498</v>
       </c>
       <c r="L2">
-        <v>1.014967681395946</v>
+        <v>0.8859487955098619</v>
       </c>
       <c r="M2">
-        <v>1.015920049790344</v>
+        <v>0.7510421203429435</v>
       </c>
       <c r="N2">
-        <v>1.00906612447811</v>
+        <v>0.9616994634893092</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0123290077605</v>
+        <v>0.8829577996317367</v>
       </c>
       <c r="D3">
-        <v>1.014885506124189</v>
+        <v>0.8920727656716464</v>
       </c>
       <c r="E3">
-        <v>1.014349969949083</v>
+        <v>0.9051749203356897</v>
       </c>
       <c r="F3">
-        <v>1.01657539013031</v>
+        <v>0.8144263221619125</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023246752324957</v>
+        <v>1.01774406662653</v>
       </c>
       <c r="J3">
-        <v>1.017211050148072</v>
+        <v>0.9072416748326271</v>
       </c>
       <c r="K3">
-        <v>1.017549598742093</v>
+        <v>0.9043021690344446</v>
       </c>
       <c r="L3">
-        <v>1.017015553002236</v>
+        <v>0.9171844010076472</v>
       </c>
       <c r="M3">
-        <v>1.019234790840363</v>
+        <v>0.82815202783011</v>
       </c>
       <c r="N3">
-        <v>1.009804260830041</v>
+        <v>0.9732799853757095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013990547240399</v>
+        <v>0.8999503108576113</v>
       </c>
       <c r="D4">
-        <v>1.016489922865572</v>
+        <v>0.9083578029237578</v>
       </c>
       <c r="E4">
-        <v>1.015783641761536</v>
+        <v>0.9195373732641519</v>
       </c>
       <c r="F4">
-        <v>1.018789415519919</v>
+        <v>0.8465671097830425</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023461817648929</v>
+        <v>1.023280507283435</v>
       </c>
       <c r="J4">
-        <v>1.018629430864997</v>
+        <v>0.9223126361854863</v>
       </c>
       <c r="K4">
-        <v>1.019024248906082</v>
+        <v>0.9197044391101793</v>
       </c>
       <c r="L4">
-        <v>1.018319830112994</v>
+        <v>0.9307148037627911</v>
       </c>
       <c r="M4">
-        <v>1.021317697615991</v>
+        <v>0.858953990811627</v>
       </c>
       <c r="N4">
-        <v>1.010273859763054</v>
+        <v>0.9782790077109627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014683415119066</v>
+        <v>0.9062482722192933</v>
       </c>
       <c r="D5">
-        <v>1.017158900337124</v>
+        <v>0.9143862342254729</v>
       </c>
       <c r="E5">
-        <v>1.016381557804524</v>
+        <v>0.9248612650954892</v>
       </c>
       <c r="F5">
-        <v>1.019705639075996</v>
+        <v>0.8580943246026635</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023548832358737</v>
+        <v>1.025267009039508</v>
       </c>
       <c r="J5">
-        <v>1.019220147637942</v>
+        <v>0.9278660213756657</v>
       </c>
       <c r="K5">
-        <v>1.01963862512403</v>
+        <v>0.9253869682778284</v>
       </c>
       <c r="L5">
-        <v>1.018863284695991</v>
+        <v>0.9357099491129192</v>
       </c>
       <c r="M5">
-        <v>1.022178827605462</v>
+        <v>0.8699943884427555</v>
       </c>
       <c r="N5">
-        <v>1.010469404293567</v>
+        <v>0.9801219213869626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014799424001475</v>
+        <v>0.9072674249247914</v>
       </c>
       <c r="D6">
-        <v>1.017270905055041</v>
+        <v>0.9153614431286614</v>
       </c>
       <c r="E6">
-        <v>1.016481672689962</v>
+        <v>0.9257228583923227</v>
       </c>
       <c r="F6">
-        <v>1.019858632571337</v>
+        <v>0.8599413329839365</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023563244356673</v>
+        <v>1.025585139809995</v>
       </c>
       <c r="J6">
-        <v>1.019319008826121</v>
+        <v>0.9287631082971125</v>
       </c>
       <c r="K6">
-        <v>1.019741459127039</v>
+        <v>0.9263052691325785</v>
       </c>
       <c r="L6">
-        <v>1.018954251391702</v>
+        <v>0.9365173262748544</v>
       </c>
       <c r="M6">
-        <v>1.022322572007372</v>
+        <v>0.8717629712303403</v>
       </c>
       <c r="N6">
-        <v>1.010502128436787</v>
+        <v>0.9804196606099974</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013999827354155</v>
+        <v>0.9000372262653968</v>
       </c>
       <c r="D7">
-        <v>1.016498883273337</v>
+        <v>0.9084410232587862</v>
       </c>
       <c r="E7">
-        <v>1.015791649838458</v>
+        <v>0.9196108417201129</v>
       </c>
       <c r="F7">
-        <v>1.018801714916446</v>
+        <v>0.8467275441637737</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023462993645269</v>
+        <v>1.023308162669898</v>
       </c>
       <c r="J7">
-        <v>1.018637345760307</v>
+        <v>0.9223893914210967</v>
       </c>
       <c r="K7">
-        <v>1.019032479922084</v>
+        <v>0.9197829536454292</v>
       </c>
       <c r="L7">
-        <v>1.018327110730025</v>
+        <v>0.9307838092635017</v>
       </c>
       <c r="M7">
-        <v>1.021329260751614</v>
+        <v>0.8591076787617596</v>
       </c>
       <c r="N7">
-        <v>1.010276479945826</v>
+        <v>0.9783044764099184</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010609347934248</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D8">
-        <v>1.013224726849681</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E8">
-        <v>1.012866392416505</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F8">
-        <v>1.014259616781333</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02301500687937</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J8">
-        <v>1.015740459935344</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K8">
-        <v>1.016021442638626</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L8">
-        <v>1.015664159477811</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M8">
-        <v>1.017053300973298</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N8">
-        <v>1.009317271314984</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004442324129462</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D9">
-        <v>1.007267006087641</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E9">
-        <v>1.007547956565901</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F9">
-        <v>1.005764727953794</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022113488764371</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J9">
-        <v>1.010446490180462</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K9">
-        <v>1.010526254529018</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L9">
-        <v>1.010806230397623</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M9">
-        <v>1.009029197930934</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N9">
-        <v>1.007563355763422</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000190790630187</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D10">
-        <v>1.003158226520186</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E10">
-        <v>1.003883126305623</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F10">
-        <v>0.9997481347662661</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021433968023802</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J10">
-        <v>1.006780010644065</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K10">
-        <v>1.006725420328503</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L10">
-        <v>1.007447541029766</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M10">
-        <v>1.003328462018642</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N10">
-        <v>1.006347980336754</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9983139923082324</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D11">
-        <v>1.001344077935216</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E11">
-        <v>1.002265739850661</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F11">
-        <v>0.9970534203241391</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021120325440467</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J11">
-        <v>1.005157452936121</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K11">
-        <v>1.005044597867223</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L11">
-        <v>1.00596257883049</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M11">
-        <v>1.00077117612243</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N11">
-        <v>1.00580997892648</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9976112416549122</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D12">
-        <v>1.000664730304424</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E12">
-        <v>1.001660187812595</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F12">
-        <v>0.9960385151339523</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021000835876873</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J12">
-        <v>1.004549292025317</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K12">
-        <v>1.004414778155151</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L12">
-        <v>1.005406200460119</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M12">
-        <v>0.9998074338895888</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N12">
-        <v>1.005608304957111</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9977622425398768</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D13">
-        <v>1.000810705075609</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E13">
-        <v>1.001790300592335</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F13">
-        <v>0.9962568566521686</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021026603280786</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J13">
-        <v>1.004679995863504</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K13">
-        <v>1.004550128691058</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L13">
-        <v>1.005525765883156</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M13">
-        <v>1.000014795257649</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N13">
-        <v>1.005651649031043</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9982560188774017</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D14">
-        <v>1.001288036271832</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E14">
-        <v>1.00221578350893</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F14">
-        <v>0.9969698160516492</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021110509809414</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J14">
-        <v>1.005107295091406</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K14">
-        <v>1.004992650059767</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L14">
-        <v>1.005916687461878</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M14">
-        <v>1.000691798532269</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N14">
-        <v>1.005793346392718</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9985594981624113</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D15">
-        <v>1.001581400868412</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E15">
-        <v>1.002477297565917</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F15">
-        <v>0.9974072266498927</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021161809064245</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J15">
-        <v>1.005369836491277</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K15">
-        <v>1.005264568008201</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L15">
-        <v>1.006156905386268</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M15">
-        <v>1.001107071245156</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N15">
-        <v>1.005880405219693</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000314572203269</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D16">
-        <v>1.003277868402726</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E16">
-        <v>1.003989807583235</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F16">
-        <v>0.999925044806819</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021454368471693</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J16">
-        <v>1.006886939675252</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K16">
-        <v>1.006836214051649</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L16">
-        <v>1.007545431365877</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M16">
-        <v>1.003496266692218</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N16">
-        <v>1.006383432325287</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001405721331596</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D17">
-        <v>1.004332483604167</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E17">
-        <v>1.004930263503624</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F17">
-        <v>1.001480088691472</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021632637890683</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J17">
-        <v>1.007829070916578</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K17">
-        <v>1.007812532590323</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L17">
-        <v>1.008408082874746</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M17">
-        <v>1.004970817198845</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N17">
-        <v>1.006695775789255</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002038727365172</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D18">
-        <v>1.004944260258981</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E18">
-        <v>1.005475887925492</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F18">
-        <v>1.002378522313599</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021734752321862</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J18">
-        <v>1.008375243796897</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K18">
-        <v>1.008378638062154</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L18">
-        <v>1.008908311687686</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M18">
-        <v>1.005822362926067</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N18">
-        <v>1.006876833297565</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002253989060768</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D19">
-        <v>1.00515229670407</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E19">
-        <v>1.00566144109552</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F19">
-        <v>1.002683422020291</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021769256141534</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J19">
-        <v>1.008560911793445</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K19">
-        <v>1.008571101253682</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L19">
-        <v>1.009078383643104</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M19">
-        <v>1.006111285187604</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N19">
-        <v>1.006938380187218</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001289009126888</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D20">
-        <v>1.004219682798374</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E20">
-        <v>1.004829665716956</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F20">
-        <v>1.001314140109574</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021613704903941</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J20">
-        <v>1.007728337857735</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K20">
-        <v>1.007708132438668</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L20">
-        <v>1.008315834130888</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M20">
-        <v>1.004813498209291</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N20">
-        <v>1.006662381391307</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.998110771290399</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D21">
-        <v>1.001147627668387</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E21">
-        <v>1.002090623107367</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F21">
-        <v>0.9967602572629009</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02108588454948</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J21">
-        <v>1.004981618979655</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K21">
-        <v>1.004862491895571</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L21">
-        <v>1.005801704866674</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M21">
-        <v>1.000492824588544</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N21">
-        <v>1.005751671353364</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9960798183746542</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D22">
-        <v>0.9991842038725113</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E22">
-        <v>1.000340697474055</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F22">
-        <v>0.9938159473963067</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020736690443559</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J22">
-        <v>1.003222876024386</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K22">
-        <v>1.003041454659543</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L22">
-        <v>1.004193109875636</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M22">
-        <v>0.9976958220205044</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N22">
-        <v>1.005168407839271</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9971596448138133</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D23">
-        <v>1.000228156824833</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E23">
-        <v>1.001271070320574</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F23">
-        <v>0.9953846540837086</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020923473761725</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J23">
-        <v>1.004158307918429</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K23">
-        <v>1.004009920431604</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L23">
-        <v>1.00504856632192</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M23">
-        <v>0.9991863680966246</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N23">
-        <v>1.005478643367967</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001341756971019</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D24">
-        <v>1.004270663002171</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E24">
-        <v>1.004875130559628</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F24">
-        <v>1.001389151660494</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021622265670234</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J24">
-        <v>1.007773865147567</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K24">
-        <v>1.00775531675527</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L24">
-        <v>1.008357526442902</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M24">
-        <v>1.004884610226809</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N24">
-        <v>1.006677474360367</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006060528904564</v>
+        <v>0.8604720513891044</v>
       </c>
       <c r="D25">
-        <v>1.008830557187946</v>
+        <v>0.8704660696858229</v>
       </c>
       <c r="E25">
-        <v>1.008943207516789</v>
+        <v>0.8861650329214725</v>
       </c>
       <c r="F25">
-        <v>1.008021340258952</v>
+        <v>0.7691930781151549</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022360144424155</v>
+        <v>1.010006783912578</v>
       </c>
       <c r="J25">
-        <v>1.011838519317112</v>
+        <v>0.8870792221611215</v>
       </c>
       <c r="K25">
-        <v>1.011970327927236</v>
+        <v>0.8837426051377419</v>
       </c>
       <c r="L25">
-        <v>1.012082603211705</v>
+        <v>0.8991449381712323</v>
       </c>
       <c r="M25">
-        <v>1.011163807811549</v>
+        <v>0.7847803158471077</v>
       </c>
       <c r="N25">
-        <v>1.008024655735144</v>
+        <v>0.9665989521161006</v>
       </c>
     </row>
   </sheetData>
